--- a/elo/knapsack/fantasydf_pursuit.xlsx
+++ b/elo/knapsack/fantasydf_pursuit.xlsx
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>50</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -668,7 +668,7 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <v>46</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -697,7 +697,7 @@
         <v>3</v>
       </c>
       <c r="I4">
-        <v>43</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -726,7 +726,7 @@
         <v>4</v>
       </c>
       <c r="I5">
-        <v>40</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="I6">
-        <v>37</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -784,7 +784,7 @@
         <v>6</v>
       </c>
       <c r="I7">
-        <v>34</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -813,7 +813,7 @@
         <v>7</v>
       </c>
       <c r="I8">
-        <v>32</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -842,7 +842,7 @@
         <v>8</v>
       </c>
       <c r="I9">
-        <v>30</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -871,7 +871,7 @@
         <v>9</v>
       </c>
       <c r="I10">
-        <v>28</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -900,7 +900,7 @@
         <v>10</v>
       </c>
       <c r="I11">
-        <v>26</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -929,7 +929,7 @@
         <v>11</v>
       </c>
       <c r="I12">
-        <v>24</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -958,7 +958,7 @@
         <v>12</v>
       </c>
       <c r="I13">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -987,7 +987,7 @@
         <v>13</v>
       </c>
       <c r="I14">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1016,7 +1016,7 @@
         <v>14</v>
       </c>
       <c r="I15">
-        <v>18</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1045,7 +1045,7 @@
         <v>15</v>
       </c>
       <c r="I16">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1074,7 +1074,7 @@
         <v>16</v>
       </c>
       <c r="I17">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1103,7 +1103,7 @@
         <v>17</v>
       </c>
       <c r="I18">
-        <v>14</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1132,7 +1132,7 @@
         <v>18</v>
       </c>
       <c r="I19">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1161,7 +1161,7 @@
         <v>19</v>
       </c>
       <c r="I20">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1190,7 +1190,7 @@
         <v>20</v>
       </c>
       <c r="I21">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1219,7 +1219,7 @@
         <v>21</v>
       </c>
       <c r="I22">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1248,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="I23">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1277,7 +1277,7 @@
         <v>23</v>
       </c>
       <c r="I24">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1306,7 +1306,7 @@
         <v>24</v>
       </c>
       <c r="I25">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="I26">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1364,7 +1364,7 @@
         <v>26</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1393,7 +1393,7 @@
         <v>27</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1422,7 +1422,7 @@
         <v>28</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1451,7 +1451,7 @@
         <v>29</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1480,7 +1480,7 @@
         <v>30</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1509,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="I32">
-        <v>50</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1538,7 +1538,7 @@
         <v>2</v>
       </c>
       <c r="I33">
-        <v>46</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1567,7 +1567,7 @@
         <v>3</v>
       </c>
       <c r="I34">
-        <v>43</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1596,7 +1596,7 @@
         <v>4</v>
       </c>
       <c r="I35">
-        <v>40</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1625,7 +1625,7 @@
         <v>5</v>
       </c>
       <c r="I36">
-        <v>37</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1654,7 +1654,7 @@
         <v>6</v>
       </c>
       <c r="I37">
-        <v>34</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1683,7 +1683,7 @@
         <v>7</v>
       </c>
       <c r="I38">
-        <v>32</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1712,7 +1712,7 @@
         <v>8</v>
       </c>
       <c r="I39">
-        <v>30</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1741,7 +1741,7 @@
         <v>9</v>
       </c>
       <c r="I40">
-        <v>28</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1770,7 +1770,7 @@
         <v>10</v>
       </c>
       <c r="I41">
-        <v>26</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1799,7 +1799,7 @@
         <v>11</v>
       </c>
       <c r="I42">
-        <v>24</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1828,7 +1828,7 @@
         <v>12</v>
       </c>
       <c r="I43">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1857,7 +1857,7 @@
         <v>13</v>
       </c>
       <c r="I44">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1886,7 +1886,7 @@
         <v>14</v>
       </c>
       <c r="I45">
-        <v>18</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1915,7 +1915,7 @@
         <v>15</v>
       </c>
       <c r="I46">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1944,7 +1944,7 @@
         <v>16</v>
       </c>
       <c r="I47">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1973,7 +1973,7 @@
         <v>17</v>
       </c>
       <c r="I48">
-        <v>14</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2002,7 +2002,7 @@
         <v>18</v>
       </c>
       <c r="I49">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2031,7 +2031,7 @@
         <v>19</v>
       </c>
       <c r="I50">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2060,7 +2060,7 @@
         <v>20</v>
       </c>
       <c r="I51">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2089,7 +2089,7 @@
         <v>21</v>
       </c>
       <c r="I52">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2118,7 +2118,7 @@
         <v>22</v>
       </c>
       <c r="I53">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2147,7 +2147,7 @@
         <v>23</v>
       </c>
       <c r="I54">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2176,7 +2176,7 @@
         <v>24</v>
       </c>
       <c r="I55">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2205,7 +2205,7 @@
         <v>25</v>
       </c>
       <c r="I56">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2234,7 +2234,7 @@
         <v>26</v>
       </c>
       <c r="I57">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2263,7 +2263,7 @@
         <v>27</v>
       </c>
       <c r="I58">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2292,7 +2292,7 @@
         <v>28</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2321,7 +2321,7 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2350,7 +2350,7 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
